--- a/PaginaToros/Server/obj/Release/net6.0/PubTmp/Out/wwwroot/Excel_Solicitud.xlsx
+++ b/PaginaToros/Server/obj/Release/net6.0/PubTmp/Out/wwwroot/Excel_Solicitud.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24334"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Paz\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECCBC869-4DA6-4E4A-BF66-19EDFC24C9A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{057B2E5D-F3FD-4778-BF29-5F76CE0C65FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
-    <sheet name="Hoja5" sheetId="5" state="hidden" r:id="rId2"/>
-    <sheet name="Hoja4" sheetId="4" state="hidden" r:id="rId3"/>
-    <sheet name="Hoja3" sheetId="3" state="hidden" r:id="rId4"/>
-    <sheet name="Hoja2" sheetId="2" state="hidden" r:id="rId5"/>
+    <sheet name="Hoja7" sheetId="7" state="hidden" r:id="rId2"/>
+    <sheet name="Hoja5" sheetId="5" state="hidden" r:id="rId3"/>
+    <sheet name="Hoja4" sheetId="4" state="hidden" r:id="rId4"/>
+    <sheet name="Hoja3" sheetId="3" state="hidden" r:id="rId5"/>
+    <sheet name="Hoja2" sheetId="2" state="hidden" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -192,6 +193,7 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="8"/>
@@ -790,53 +792,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0" hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
@@ -907,6 +862,53 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1327,7 +1329,7 @@
   <dimension ref="B1:IV58"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="13.8" zeroHeight="1" x14ac:dyDescent="0.3"/>
@@ -1348,19 +1350,19 @@
   <sheetData>
     <row r="1" spans="2:256" ht="14.4" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:256" ht="45" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="B2" s="84" t="s">
+      <c r="B2" s="102" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="85"/>
-      <c r="J2" s="85"/>
-      <c r="K2" s="85"/>
-      <c r="L2" s="86"/>
+      <c r="C2" s="103"/>
+      <c r="D2" s="103"/>
+      <c r="E2" s="103"/>
+      <c r="F2" s="103"/>
+      <c r="G2" s="103"/>
+      <c r="H2" s="103"/>
+      <c r="I2" s="103"/>
+      <c r="J2" s="103"/>
+      <c r="K2" s="103"/>
+      <c r="L2" s="104"/>
     </row>
     <row r="3" spans="2:256" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="59"/>
@@ -1410,7 +1412,7 @@
       </c>
       <c r="D6" s="55">
         <f>+Hoja2!E1</f>
-        <v>3300</v>
+        <v>3450</v>
       </c>
       <c r="E6" s="53"/>
       <c r="F6" s="7"/>
@@ -1621,11 +1623,11 @@
       <c r="F17" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="G17" s="82" t="s">
+      <c r="G17" s="100" t="s">
         <v>9</v>
       </c>
-      <c r="H17" s="83"/>
-      <c r="I17" s="83"/>
+      <c r="H17" s="101"/>
+      <c r="I17" s="101"/>
       <c r="J17" s="58" t="s">
         <v>23</v>
       </c>
@@ -1663,7 +1665,7 @@
       </c>
       <c r="I19" s="40">
         <f>$D$6*G19</f>
-        <v>6600</v>
+        <v>6900</v>
       </c>
       <c r="J19" s="41">
         <f>E19*I19</f>
@@ -1690,7 +1692,7 @@
       </c>
       <c r="I20" s="40">
         <f t="shared" ref="I20:I30" si="0">$D$6*G20</f>
-        <v>6600</v>
+        <v>6900</v>
       </c>
       <c r="J20" s="41">
         <f>E20*I20</f>
@@ -1717,7 +1719,7 @@
       </c>
       <c r="I21" s="40">
         <f t="shared" si="0"/>
-        <v>33000</v>
+        <v>34500</v>
       </c>
       <c r="J21" s="41">
         <f t="shared" ref="J21:J27" si="1">E21*I21</f>
@@ -1788,7 +1790,7 @@
       </c>
       <c r="I25" s="40">
         <f t="shared" si="0"/>
-        <v>6600</v>
+        <v>6900</v>
       </c>
       <c r="J25" s="41">
         <f t="shared" si="1"/>
@@ -1815,7 +1817,7 @@
       </c>
       <c r="I26" s="40">
         <f t="shared" si="0"/>
-        <v>6600</v>
+        <v>6900</v>
       </c>
       <c r="J26" s="41">
         <f t="shared" si="1"/>
@@ -1842,7 +1844,7 @@
       </c>
       <c r="I27" s="40">
         <f t="shared" si="0"/>
-        <v>33000</v>
+        <v>34500</v>
       </c>
       <c r="J27" s="41">
         <f t="shared" si="1"/>
@@ -1897,7 +1899,7 @@
       </c>
       <c r="I30" s="40">
         <f t="shared" si="0"/>
-        <v>6600</v>
+        <v>6900</v>
       </c>
       <c r="J30" s="41">
         <f>E30*I30</f>
@@ -1922,7 +1924,7 @@
       <c r="I31" s="42"/>
       <c r="J31" s="57">
         <f>SUM(J19,J20,J21,J25,J26,J27,J30,F33)</f>
-        <v>165000</v>
+        <v>172500</v>
       </c>
       <c r="K31" s="23"/>
       <c r="L31" s="65"/>
@@ -1952,7 +1954,7 @@
       </c>
       <c r="F33" s="43">
         <f>IF($E$31&lt;26,Hoja2!D2,IF(Hoja1!$E$31&lt;51,Hoja2!$D$3,Hoja2!$D$4))</f>
-        <v>165000</v>
+        <v>172500</v>
       </c>
       <c r="G33" s="17"/>
       <c r="H33" s="47"/>
@@ -1974,7 +1976,7 @@
       </c>
       <c r="F34" s="43">
         <f>IF($E$31&lt;26,Hoja2!D2*0.5,IF(Hoja1!$E$31&lt;51,Hoja2!D3*0.5,E34*E31*D6))</f>
-        <v>82500</v>
+        <v>86250</v>
       </c>
       <c r="G34" s="26"/>
       <c r="H34" s="47"/>
@@ -1998,14 +2000,14 @@
     </row>
     <row r="36" spans="2:12" ht="21" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B36" s="29"/>
-      <c r="C36" s="87" t="s">
+      <c r="C36" s="105" t="s">
         <v>4</v>
       </c>
-      <c r="D36" s="88"/>
-      <c r="E36" s="89"/>
+      <c r="D36" s="106"/>
+      <c r="E36" s="107"/>
       <c r="F36" s="44">
         <f>IF(E31&gt;50,J31,F33+F34)</f>
-        <v>247500</v>
+        <v>258750</v>
       </c>
       <c r="G36" s="32" t="s">
         <v>8</v>
@@ -2074,17 +2076,17 @@
     </row>
     <row r="41" spans="2:12" ht="18" x14ac:dyDescent="0.35">
       <c r="B41" s="30"/>
-      <c r="C41" s="90" t="s">
+      <c r="C41" s="108" t="s">
         <v>26</v>
       </c>
-      <c r="D41" s="90"/>
-      <c r="E41" s="90"/>
-      <c r="F41" s="90"/>
-      <c r="G41" s="90"/>
-      <c r="H41" s="90"/>
-      <c r="I41" s="90"/>
-      <c r="J41" s="90"/>
-      <c r="K41" s="90"/>
+      <c r="D41" s="108"/>
+      <c r="E41" s="108"/>
+      <c r="F41" s="108"/>
+      <c r="G41" s="108"/>
+      <c r="H41" s="108"/>
+      <c r="I41" s="108"/>
+      <c r="J41" s="108"/>
+      <c r="K41" s="108"/>
       <c r="L41" s="37"/>
     </row>
     <row r="42" spans="2:12" s="38" customFormat="1" ht="9.9" customHeight="1" x14ac:dyDescent="0.3">
@@ -2102,17 +2104,17 @@
     </row>
     <row r="43" spans="2:12" ht="91.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B43" s="31"/>
-      <c r="C43" s="91" t="s">
+      <c r="C43" s="109" t="s">
         <v>28</v>
       </c>
-      <c r="D43" s="91"/>
-      <c r="E43" s="91"/>
-      <c r="F43" s="91"/>
-      <c r="G43" s="91"/>
-      <c r="H43" s="91"/>
-      <c r="I43" s="91"/>
-      <c r="J43" s="91"/>
-      <c r="K43" s="91"/>
+      <c r="D43" s="109"/>
+      <c r="E43" s="109"/>
+      <c r="F43" s="109"/>
+      <c r="G43" s="109"/>
+      <c r="H43" s="109"/>
+      <c r="I43" s="109"/>
+      <c r="J43" s="109"/>
+      <c r="K43" s="109"/>
       <c r="L43" s="8"/>
     </row>
     <row r="44" spans="2:12" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -2131,11 +2133,11 @@
     <row r="45" spans="2:12" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B45" s="9"/>
       <c r="C45" s="7"/>
-      <c r="D45" s="79" t="s">
+      <c r="D45" s="97" t="s">
         <v>30</v>
       </c>
-      <c r="E45" s="80"/>
-      <c r="F45" s="81"/>
+      <c r="E45" s="98"/>
+      <c r="F45" s="99"/>
       <c r="G45" s="7"/>
       <c r="H45" s="45" t="s">
         <v>31</v>
@@ -2148,16 +2150,16 @@
     <row r="46" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B46" s="9"/>
       <c r="C46" s="7"/>
-      <c r="D46" s="95" t="s">
+      <c r="D46" s="82" t="s">
         <v>39</v>
       </c>
-      <c r="E46" s="96"/>
-      <c r="F46" s="97"/>
+      <c r="E46" s="83"/>
+      <c r="F46" s="84"/>
       <c r="G46" s="7"/>
-      <c r="H46" s="104" t="s">
+      <c r="H46" s="91" t="s">
         <v>29</v>
       </c>
-      <c r="I46" s="105"/>
+      <c r="I46" s="92"/>
       <c r="J46" s="7"/>
       <c r="K46" s="7"/>
       <c r="L46" s="8"/>
@@ -2165,12 +2167,12 @@
     <row r="47" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B47" s="9"/>
       <c r="C47" s="7"/>
-      <c r="D47" s="98"/>
-      <c r="E47" s="99"/>
-      <c r="F47" s="100"/>
+      <c r="D47" s="85"/>
+      <c r="E47" s="86"/>
+      <c r="F47" s="87"/>
       <c r="G47" s="7"/>
-      <c r="H47" s="106"/>
-      <c r="I47" s="107"/>
+      <c r="H47" s="93"/>
+      <c r="I47" s="94"/>
       <c r="J47" s="7"/>
       <c r="K47" s="7"/>
       <c r="L47" s="8"/>
@@ -2178,12 +2180,12 @@
     <row r="48" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B48" s="9"/>
       <c r="C48" s="7"/>
-      <c r="D48" s="101"/>
-      <c r="E48" s="102"/>
-      <c r="F48" s="103"/>
+      <c r="D48" s="88"/>
+      <c r="E48" s="89"/>
+      <c r="F48" s="90"/>
       <c r="G48" s="7"/>
-      <c r="H48" s="108"/>
-      <c r="I48" s="109"/>
+      <c r="H48" s="95"/>
+      <c r="I48" s="96"/>
       <c r="J48" s="7"/>
       <c r="K48" s="7"/>
       <c r="L48" s="8"/>
@@ -2203,47 +2205,47 @@
     </row>
     <row r="50" spans="2:12" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B50" s="9"/>
-      <c r="C50" s="92" t="s">
+      <c r="C50" s="79" t="s">
         <v>32</v>
       </c>
-      <c r="D50" s="92"/>
-      <c r="E50" s="92"/>
-      <c r="F50" s="92"/>
-      <c r="G50" s="92"/>
-      <c r="H50" s="92"/>
-      <c r="I50" s="92"/>
-      <c r="J50" s="92"/>
-      <c r="K50" s="92"/>
+      <c r="D50" s="79"/>
+      <c r="E50" s="79"/>
+      <c r="F50" s="79"/>
+      <c r="G50" s="79"/>
+      <c r="H50" s="79"/>
+      <c r="I50" s="79"/>
+      <c r="J50" s="79"/>
+      <c r="K50" s="79"/>
       <c r="L50" s="8"/>
     </row>
     <row r="51" spans="2:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B51" s="9"/>
-      <c r="C51" s="93" t="s">
+      <c r="C51" s="80" t="s">
         <v>33</v>
       </c>
-      <c r="D51" s="93"/>
-      <c r="E51" s="93"/>
-      <c r="F51" s="93"/>
-      <c r="G51" s="93"/>
-      <c r="H51" s="93"/>
-      <c r="I51" s="93"/>
-      <c r="J51" s="93"/>
-      <c r="K51" s="93"/>
+      <c r="D51" s="80"/>
+      <c r="E51" s="80"/>
+      <c r="F51" s="80"/>
+      <c r="G51" s="80"/>
+      <c r="H51" s="80"/>
+      <c r="I51" s="80"/>
+      <c r="J51" s="80"/>
+      <c r="K51" s="80"/>
       <c r="L51" s="8"/>
     </row>
     <row r="52" spans="2:12" ht="59.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B52" s="9"/>
-      <c r="C52" s="94" t="s">
+      <c r="C52" s="81" t="s">
         <v>34</v>
       </c>
-      <c r="D52" s="94"/>
-      <c r="E52" s="94"/>
-      <c r="F52" s="94"/>
-      <c r="G52" s="94"/>
-      <c r="H52" s="94"/>
-      <c r="I52" s="94"/>
-      <c r="J52" s="94"/>
-      <c r="K52" s="94"/>
+      <c r="D52" s="81"/>
+      <c r="E52" s="81"/>
+      <c r="F52" s="81"/>
+      <c r="G52" s="81"/>
+      <c r="H52" s="81"/>
+      <c r="I52" s="81"/>
+      <c r="J52" s="81"/>
+      <c r="K52" s="81"/>
       <c r="L52" s="8"/>
     </row>
     <row r="53" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -2339,17 +2341,17 @@
   </sheetData>
   <sheetProtection sheet="1" selectLockedCells="1"/>
   <mergeCells count="11">
-    <mergeCell ref="C50:K50"/>
-    <mergeCell ref="C51:K51"/>
-    <mergeCell ref="C52:K52"/>
-    <mergeCell ref="D46:F48"/>
-    <mergeCell ref="H46:I48"/>
     <mergeCell ref="D45:F45"/>
     <mergeCell ref="G17:I17"/>
     <mergeCell ref="B2:L2"/>
     <mergeCell ref="C36:E36"/>
     <mergeCell ref="C41:K41"/>
     <mergeCell ref="C43:K43"/>
+    <mergeCell ref="C50:K50"/>
+    <mergeCell ref="C51:K51"/>
+    <mergeCell ref="C52:K52"/>
+    <mergeCell ref="D46:F48"/>
+    <mergeCell ref="H46:I48"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -2360,6 +2362,18 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77548558-2CD4-4C6A-9288-EC03C4ECAA4D}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F00F9535-952D-479A-BA3F-573E8038FD97}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -2371,7 +2385,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8ADF3584-9D6B-4B2F-973B-DE07E45433BB}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -2383,7 +2397,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -2395,12 +2409,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:F5"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2419,7 +2433,7 @@
       <c r="C1" s="110"/>
       <c r="D1" s="110"/>
       <c r="E1" s="50">
-        <v>3300</v>
+        <v>3450</v>
       </c>
       <c r="F1" s="51"/>
     </row>
@@ -2432,7 +2446,7 @@
       </c>
       <c r="D2" s="2">
         <f>+E1*E2</f>
-        <v>165000</v>
+        <v>172500</v>
       </c>
       <c r="E2" s="1">
         <v>50</v>
@@ -2450,7 +2464,7 @@
       </c>
       <c r="D3" s="2">
         <f>+E1*E3</f>
-        <v>231000</v>
+        <v>241500</v>
       </c>
       <c r="E3" s="1">
         <v>70</v>
@@ -2468,7 +2482,7 @@
       </c>
       <c r="D4" s="2">
         <f>+E1*E4</f>
-        <v>330000</v>
+        <v>345000</v>
       </c>
       <c r="E4" s="1">
         <v>100</v>
